--- a/HsSurvey_glm_lm_model_fits.xlsx
+++ b/HsSurvey_glm_lm_model_fits.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Camille\Desktop\Fishscapes\hsSurvey\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{79CFEA25-7D13-4B01-9692-643F3A904AFB}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F23C30BE-020E-4382-93F3-186F16D84ADA}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{17A9F256-7631-491B-A39B-0452DB16D56A}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="34">
   <si>
     <t>&lt; 2e-16</t>
   </si>
@@ -115,6 +115,24 @@
   </si>
   <si>
     <t>*</t>
+  </si>
+  <si>
+    <t>Detecting hyperstability in Largemouth bass</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Detecting hyperstability in Bluegill </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Intercept </t>
+  </si>
+  <si>
+    <t>BLGJoin$logAbun</t>
+  </si>
+  <si>
+    <t>Detecting hyperstability in Walleye</t>
+  </si>
+  <si>
+    <t>wallJoin$logAbun</t>
   </si>
 </sst>
 </file>
@@ -156,7 +174,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -164,6 +182,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -478,15 +497,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0ED3D0C4-5DCE-41DD-8AD0-6E560E0C7C68}">
-  <dimension ref="A1:G21"/>
+  <dimension ref="A1:G36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="51.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="58.7109375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -747,6 +766,18 @@
       <c r="A18" t="s">
         <v>2</v>
       </c>
+      <c r="B18">
+        <v>0.24048</v>
+      </c>
+      <c r="C18">
+        <v>0.11228</v>
+      </c>
+      <c r="D18">
+        <v>2.1419999999999999</v>
+      </c>
+      <c r="E18">
+        <v>3.3148999999999998E-2</v>
+      </c>
       <c r="F18" t="s">
         <v>27</v>
       </c>
@@ -755,6 +786,18 @@
       <c r="A19" t="s">
         <v>25</v>
       </c>
+      <c r="B19">
+        <v>0.21254999999999999</v>
+      </c>
+      <c r="C19">
+        <v>4.582E-2</v>
+      </c>
+      <c r="D19">
+        <v>4.6390000000000002</v>
+      </c>
+      <c r="E19" s="3">
+        <v>5.5799999999999999E-6</v>
+      </c>
       <c r="F19" t="s">
         <v>10</v>
       </c>
@@ -763,6 +806,18 @@
       <c r="A20" t="s">
         <v>26</v>
       </c>
+      <c r="B20">
+        <v>-1.7180599999999999</v>
+      </c>
+      <c r="C20">
+        <v>0.12427000000000001</v>
+      </c>
+      <c r="D20">
+        <v>-13.824999999999999</v>
+      </c>
+      <c r="E20" t="s">
+        <v>20</v>
+      </c>
       <c r="F20" t="s">
         <v>10</v>
       </c>
@@ -771,15 +826,225 @@
       <c r="A21" t="s">
         <v>24</v>
       </c>
+      <c r="B21">
+        <v>0.19367000000000001</v>
+      </c>
+      <c r="C21">
+        <v>5.2670000000000002E-2</v>
+      </c>
+      <c r="D21">
+        <v>3.677</v>
+      </c>
+      <c r="E21">
+        <v>2.8699999999999998E-4</v>
+      </c>
       <c r="F21" t="s">
         <v>10</v>
       </c>
     </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B23" s="1"/>
+      <c r="C23" s="1"/>
+      <c r="D23" s="1"/>
+      <c r="E23" s="1"/>
+      <c r="F23" s="1"/>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B24" t="s">
+        <v>3</v>
+      </c>
+      <c r="C24" t="s">
+        <v>4</v>
+      </c>
+      <c r="D24" t="s">
+        <v>5</v>
+      </c>
+      <c r="E24" t="s">
+        <v>6</v>
+      </c>
+      <c r="F24" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>2</v>
+      </c>
+      <c r="B25">
+        <v>-1.3630199999999999</v>
+      </c>
+      <c r="C25">
+        <v>3.7699999999999997E-2</v>
+      </c>
+      <c r="D25">
+        <v>-36.159999999999997</v>
+      </c>
+      <c r="E25" t="s">
+        <v>20</v>
+      </c>
+      <c r="F25" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>11</v>
+      </c>
+      <c r="B26">
+        <v>0.34553</v>
+      </c>
+      <c r="C26">
+        <v>2.1080000000000002E-2</v>
+      </c>
+      <c r="D26">
+        <v>16.39</v>
+      </c>
+      <c r="E26" t="s">
+        <v>20</v>
+      </c>
+      <c r="F26" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B28" s="1"/>
+      <c r="C28" s="1"/>
+      <c r="D28" s="1"/>
+      <c r="E28" s="1"/>
+      <c r="F28" s="1"/>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B29" t="s">
+        <v>3</v>
+      </c>
+      <c r="C29" t="s">
+        <v>4</v>
+      </c>
+      <c r="D29" t="s">
+        <v>5</v>
+      </c>
+      <c r="E29" t="s">
+        <v>6</v>
+      </c>
+      <c r="F29" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>30</v>
+      </c>
+      <c r="B30">
+        <v>0.24048</v>
+      </c>
+      <c r="C30">
+        <v>9.9849999999999994E-2</v>
+      </c>
+      <c r="D30">
+        <v>2.4079999999999999</v>
+      </c>
+      <c r="E30">
+        <v>1.8100000000000002E-2</v>
+      </c>
+      <c r="F30" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>31</v>
+      </c>
+      <c r="B31">
+        <v>0.21254999999999999</v>
+      </c>
+      <c r="C31">
+        <v>4.0739999999999998E-2</v>
+      </c>
+      <c r="D31">
+        <v>5.2169999999999996</v>
+      </c>
+      <c r="E31" s="3">
+        <v>1.22E-6</v>
+      </c>
+      <c r="F31" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B33" s="1"/>
+      <c r="C33" s="1"/>
+      <c r="D33" s="1"/>
+      <c r="E33" s="1"/>
+      <c r="F33" s="1"/>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B34" t="s">
+        <v>3</v>
+      </c>
+      <c r="C34" t="s">
+        <v>4</v>
+      </c>
+      <c r="D34" t="s">
+        <v>5</v>
+      </c>
+      <c r="E34" t="s">
+        <v>6</v>
+      </c>
+      <c r="F34" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>2</v>
+      </c>
+      <c r="B35">
+        <v>-3.23034</v>
+      </c>
+      <c r="C35">
+        <v>0.11398</v>
+      </c>
+      <c r="D35">
+        <v>-28.34</v>
+      </c>
+      <c r="F35" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>33</v>
+      </c>
+      <c r="B36">
+        <v>0.63073000000000001</v>
+      </c>
+      <c r="C36">
+        <v>4.2349999999999999E-2</v>
+      </c>
+      <c r="D36">
+        <v>14.89</v>
+      </c>
+      <c r="F36" t="s">
+        <v>10</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="6">
     <mergeCell ref="A1:F1"/>
     <mergeCell ref="A9:F9"/>
     <mergeCell ref="A16:F16"/>
+    <mergeCell ref="A23:F23"/>
+    <mergeCell ref="A28:F28"/>
+    <mergeCell ref="A33:F33"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/HsSurvey_glm_lm_model_fits.xlsx
+++ b/HsSurvey_glm_lm_model_fits.xlsx
@@ -8,14 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Camille\Desktop\Fishscapes\hsSurvey\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F23C30BE-020E-4382-93F3-186F16D84ADA}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F95C19B-9939-4880-A04A-1677199223CD}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{17A9F256-7631-491B-A39B-0452DB16D56A}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="449" activeTab="1" xr2:uid="{17A9F256-7631-491B-A39B-0452DB16D56A}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Fit tables" sheetId="1" r:id="rId1"/>
+    <sheet name="R Plots" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -31,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="41">
   <si>
     <t>&lt; 2e-16</t>
   </si>
@@ -133,6 +135,27 @@
   </si>
   <si>
     <t>wallJoin$logAbun</t>
+  </si>
+  <si>
+    <t>Relationship between hyperstability in Panfish and building density</t>
+  </si>
+  <si>
+    <t>panbuildJoin$logAbun:panbuildJoin$buildingDensity200m</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Relationship between hyperstability in Walleye and building density </t>
+  </si>
+  <si>
+    <t>wallbuildJoin$logAbun:wallbuildJoin$buildingDensity200m</t>
+  </si>
+  <si>
+    <t>**</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Relationship between hyperstability in Largemouth bass and CWH density </t>
+  </si>
+  <si>
+    <t>bassbuildCWHJoin$logAbun:bassbuildCWHJoin$Total.CWH.per.km.shoreline</t>
   </si>
 </sst>
 </file>
@@ -162,7 +185,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -170,19 +193,35 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -198,6 +237,143 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>73528</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>36909</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{10156C0D-19A4-4A2F-8EE1-00B9C2760FF6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="4340728" cy="3846909"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{55272ABF-8DD8-488F-9AEF-5F2D72E6BE32}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4876800" y="0"/>
+          <a:ext cx="3667125" cy="3819525"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>123200</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>9119</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Picture 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B501C390-4B62-4F4D-B58C-F93872F4C6E4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="4191000"/>
+          <a:ext cx="5000000" cy="3247619"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -497,10 +673,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0ED3D0C4-5DCE-41DD-8AD0-6E560E0C7C68}">
-  <dimension ref="A1:G36"/>
+  <dimension ref="A1:G51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="E26" sqref="E26"/>
+    <sheetView topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="F57" sqref="F57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -523,99 +699,100 @@
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B2" t="s">
+      <c r="A2" s="2"/>
+      <c r="B2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F2" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="2">
         <v>-1.4775799999999999</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="2">
         <v>5.1589999999999997E-2</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="2">
         <v>-28.64</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E3" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="F3" t="s">
+      <c r="F3" s="2" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="A4" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="2">
         <v>0.40621000000000002</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="2">
         <v>2.5159999999999998E-2</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="2">
         <v>16.141999999999999</v>
       </c>
-      <c r="E4" t="s">
+      <c r="E4" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="F4" t="s">
+      <c r="F4" s="2" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="A5" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="2">
         <v>0.23028000000000001</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="2">
         <v>7.3450000000000001E-2</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="2">
         <v>3.1349999999999998</v>
       </c>
-      <c r="E5">
+      <c r="E5" s="2">
         <v>1.8749999999999999E-3</v>
       </c>
-      <c r="F5" t="s">
+      <c r="F5" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+      <c r="A6" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="2">
         <v>-0.17091999999999999</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="2">
         <v>4.4089999999999997E-2</v>
       </c>
-      <c r="D6">
+      <c r="D6" s="2">
         <v>-3.8769999999999998</v>
       </c>
-      <c r="E6">
+      <c r="E6" s="2">
         <v>1.2799999999999999E-4</v>
       </c>
-      <c r="F6" t="s">
+      <c r="F6" s="2" t="s">
         <v>10</v>
       </c>
     </row>
@@ -635,20 +812,20 @@
       <c r="F9" s="1"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="2"/>
-      <c r="B10" t="s">
+      <c r="A10" s="3"/>
+      <c r="B10" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C10" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D10" t="s">
+      <c r="D10" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="E10" t="s">
+      <c r="E10" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="F10" t="s">
+      <c r="F10" s="2" t="s">
         <v>7</v>
       </c>
       <c r="G10" t="s">
@@ -656,82 +833,82 @@
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="2" t="s">
+      <c r="A11" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B11">
+      <c r="B11" s="2">
         <v>-1.4775799999999999</v>
       </c>
-      <c r="C11">
+      <c r="C11" s="2">
         <v>6.3060000000000005E-2</v>
       </c>
-      <c r="D11">
+      <c r="D11" s="2">
         <v>-23.431999999999999</v>
       </c>
-      <c r="E11" t="s">
+      <c r="E11" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="F11" t="s">
+      <c r="F11" s="2" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
+      <c r="A12" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B12">
+      <c r="B12" s="2">
         <v>0.40621000000000002</v>
       </c>
-      <c r="C12">
+      <c r="C12" s="2">
         <v>3.0759999999999999E-2</v>
       </c>
-      <c r="D12">
+      <c r="D12" s="2">
         <v>13.207000000000001</v>
       </c>
-      <c r="E12" t="s">
+      <c r="E12" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="F12" t="s">
+      <c r="F12" s="2" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
+      <c r="A13" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B13">
+      <c r="B13" s="2">
         <v>-1.7527600000000001</v>
       </c>
-      <c r="C13">
+      <c r="C13" s="2">
         <v>0.12484000000000001</v>
       </c>
-      <c r="D13">
+      <c r="D13" s="2">
         <v>-14.04</v>
       </c>
-      <c r="E13" t="s">
+      <c r="E13" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="F13" t="s">
+      <c r="F13" s="2" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
+      <c r="A14" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B14">
+      <c r="B14" s="2">
         <v>0.22450999999999999</v>
       </c>
-      <c r="C14">
+      <c r="C14" s="2">
         <v>5.049E-2</v>
       </c>
-      <c r="D14">
+      <c r="D14" s="2">
         <v>4.4470000000000001</v>
       </c>
-      <c r="E14" t="s">
+      <c r="E14" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="F14" t="s">
+      <c r="F14" s="2" t="s">
         <v>10</v>
       </c>
     </row>
@@ -746,99 +923,100 @@
       <c r="F16" s="1"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B17" t="s">
+      <c r="A17" s="2"/>
+      <c r="B17" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C17" t="s">
+      <c r="C17" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D17" t="s">
+      <c r="D17" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="E17" t="s">
+      <c r="E17" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="F17" t="s">
+      <c r="F17" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
+      <c r="A18" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B18">
+      <c r="B18" s="2">
         <v>0.24048</v>
       </c>
-      <c r="C18">
+      <c r="C18" s="2">
         <v>0.11228</v>
       </c>
-      <c r="D18">
+      <c r="D18" s="2">
         <v>2.1419999999999999</v>
       </c>
-      <c r="E18">
+      <c r="E18" s="2">
         <v>3.3148999999999998E-2</v>
       </c>
-      <c r="F18" t="s">
+      <c r="F18" s="2" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
+      <c r="A19" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="B19">
+      <c r="B19" s="2">
         <v>0.21254999999999999</v>
       </c>
-      <c r="C19">
+      <c r="C19" s="2">
         <v>4.582E-2</v>
       </c>
-      <c r="D19">
+      <c r="D19" s="2">
         <v>4.6390000000000002</v>
       </c>
-      <c r="E19" s="3">
+      <c r="E19" s="4">
         <v>5.5799999999999999E-6</v>
       </c>
-      <c r="F19" t="s">
+      <c r="F19" s="2" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
+      <c r="A20" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B20">
+      <c r="B20" s="2">
         <v>-1.7180599999999999</v>
       </c>
-      <c r="C20">
+      <c r="C20" s="2">
         <v>0.12427000000000001</v>
       </c>
-      <c r="D20">
+      <c r="D20" s="2">
         <v>-13.824999999999999</v>
       </c>
-      <c r="E20" t="s">
+      <c r="E20" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="F20" t="s">
+      <c r="F20" s="2" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
+      <c r="A21" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B21">
+      <c r="B21" s="2">
         <v>0.19367000000000001</v>
       </c>
-      <c r="C21">
+      <c r="C21" s="2">
         <v>5.2670000000000002E-2</v>
       </c>
-      <c r="D21">
+      <c r="D21" s="2">
         <v>3.677</v>
       </c>
-      <c r="E21">
+      <c r="E21" s="2">
         <v>2.8699999999999998E-4</v>
       </c>
-      <c r="F21" t="s">
+      <c r="F21" s="2" t="s">
         <v>10</v>
       </c>
     </row>
@@ -853,59 +1031,60 @@
       <c r="F23" s="1"/>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B24" t="s">
+      <c r="A24" s="2"/>
+      <c r="B24" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C24" t="s">
+      <c r="C24" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D24" t="s">
+      <c r="D24" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="E24" t="s">
+      <c r="E24" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="F24" t="s">
+      <c r="F24" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
+      <c r="A25" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B25">
+      <c r="B25" s="2">
         <v>-1.3630199999999999</v>
       </c>
-      <c r="C25">
+      <c r="C25" s="2">
         <v>3.7699999999999997E-2</v>
       </c>
-      <c r="D25">
+      <c r="D25" s="2">
         <v>-36.159999999999997</v>
       </c>
-      <c r="E25" t="s">
+      <c r="E25" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="F25" t="s">
+      <c r="F25" s="2" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
+      <c r="A26" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B26">
+      <c r="B26" s="2">
         <v>0.34553</v>
       </c>
-      <c r="C26">
+      <c r="C26" s="2">
         <v>2.1080000000000002E-2</v>
       </c>
-      <c r="D26">
+      <c r="D26" s="2">
         <v>16.39</v>
       </c>
-      <c r="E26" t="s">
+      <c r="E26" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="F26" t="s">
+      <c r="F26" s="2" t="s">
         <v>10</v>
       </c>
     </row>
@@ -920,59 +1099,60 @@
       <c r="F28" s="1"/>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B29" t="s">
+      <c r="A29" s="2"/>
+      <c r="B29" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C29" t="s">
+      <c r="C29" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D29" t="s">
+      <c r="D29" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="E29" t="s">
+      <c r="E29" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="F29" t="s">
+      <c r="F29" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
+      <c r="A30" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="B30">
+      <c r="B30" s="2">
         <v>0.24048</v>
       </c>
-      <c r="C30">
+      <c r="C30" s="2">
         <v>9.9849999999999994E-2</v>
       </c>
-      <c r="D30">
+      <c r="D30" s="2">
         <v>2.4079999999999999</v>
       </c>
-      <c r="E30">
+      <c r="E30" s="2">
         <v>1.8100000000000002E-2</v>
       </c>
-      <c r="F30" t="s">
+      <c r="F30" s="2" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
+      <c r="A31" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="B31">
+      <c r="B31" s="2">
         <v>0.21254999999999999</v>
       </c>
-      <c r="C31">
+      <c r="C31" s="2">
         <v>4.0739999999999998E-2</v>
       </c>
-      <c r="D31">
+      <c r="D31" s="2">
         <v>5.2169999999999996</v>
       </c>
-      <c r="E31" s="3">
+      <c r="E31" s="4">
         <v>1.22E-6</v>
       </c>
-      <c r="F31" t="s">
+      <c r="F31" s="2" t="s">
         <v>10</v>
       </c>
     </row>
@@ -987,67 +1167,290 @@
       <c r="F33" s="1"/>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B34" t="s">
+      <c r="A34" s="2"/>
+      <c r="B34" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C34" t="s">
+      <c r="C34" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D34" t="s">
+      <c r="D34" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="E34" t="s">
+      <c r="E34" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="F34" t="s">
+      <c r="F34" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
+      <c r="A35" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B35">
+      <c r="B35" s="2">
         <v>-3.23034</v>
       </c>
-      <c r="C35">
+      <c r="C35" s="2">
         <v>0.11398</v>
       </c>
-      <c r="D35">
+      <c r="D35" s="2">
         <v>-28.34</v>
       </c>
-      <c r="F35" t="s">
+      <c r="E35" s="2"/>
+      <c r="F35" s="2" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
+      <c r="A36" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="B36">
+      <c r="B36" s="2">
         <v>0.63073000000000001</v>
       </c>
-      <c r="C36">
+      <c r="C36" s="2">
         <v>4.2349999999999999E-2</v>
       </c>
-      <c r="D36">
+      <c r="D36" s="2">
         <v>14.89</v>
       </c>
-      <c r="F36" t="s">
-        <v>10</v>
+      <c r="E36" s="2"/>
+      <c r="F36" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A38" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B38" s="1"/>
+      <c r="C38" s="1"/>
+      <c r="D38" s="1"/>
+      <c r="E38" s="1"/>
+      <c r="F38" s="1"/>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A39" s="2"/>
+      <c r="B39" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E39" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F39" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A40" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B40" s="2">
+        <v>0.123748</v>
+      </c>
+      <c r="C40" s="2">
+        <v>9.7030000000000005E-2</v>
+      </c>
+      <c r="D40" s="2">
+        <v>1.2749999999999999</v>
+      </c>
+      <c r="E40" s="2">
+        <v>0.20899999999999999</v>
+      </c>
+      <c r="F40" s="2"/>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A41" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B41" s="2">
+        <v>1.227E-2</v>
+      </c>
+      <c r="C41" s="2">
+        <v>2.7309999999999999E-3</v>
+      </c>
+      <c r="D41" s="2">
+        <v>4.4930000000000003</v>
+      </c>
+      <c r="E41" s="4">
+        <v>5.4299999999999998E-5</v>
+      </c>
+      <c r="F41" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A43" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B43" s="1"/>
+      <c r="C43" s="1"/>
+      <c r="D43" s="1"/>
+      <c r="E43" s="1"/>
+      <c r="F43" s="1"/>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A44" s="2"/>
+      <c r="B44" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D44" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E44" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F44" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A45" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B45" s="2">
+        <v>-1.6430849999999999</v>
+      </c>
+      <c r="C45" s="2">
+        <v>0.12912299999999999</v>
+      </c>
+      <c r="D45" s="2">
+        <v>-12.725</v>
+      </c>
+      <c r="E45" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="F45" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A46" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B46" s="2">
+        <v>7.4749999999999999E-3</v>
+      </c>
+      <c r="C46" s="2">
+        <v>2.2079999999999999E-3</v>
+      </c>
+      <c r="D46" s="2">
+        <v>3.3849999999999998</v>
+      </c>
+      <c r="E46" s="2">
+        <v>1.01E-3</v>
+      </c>
+      <c r="F46" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A48" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B48" s="1"/>
+      <c r="C48" s="1"/>
+      <c r="D48" s="1"/>
+      <c r="E48" s="1"/>
+      <c r="F48" s="1"/>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A49" s="2"/>
+      <c r="B49" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D49" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E49" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F49" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A50" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B50" s="2">
+        <v>-1.3826087</v>
+      </c>
+      <c r="C50" s="2">
+        <v>0.1744318</v>
+      </c>
+      <c r="D50" s="2">
+        <v>-7.9260000000000002</v>
+      </c>
+      <c r="E50" s="4">
+        <v>9.5500000000000002E-8</v>
+      </c>
+      <c r="F50" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A51" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B51" s="2">
+        <v>2.7518999999999998E-3</v>
+      </c>
+      <c r="C51" s="2">
+        <v>8.2759999999999995E-4</v>
+      </c>
+      <c r="D51" s="2">
+        <v>3.3250000000000002</v>
+      </c>
+      <c r="E51" s="2">
+        <v>3.2200000000000002E-3</v>
+      </c>
+      <c r="F51" s="2" t="s">
+        <v>38</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="9">
+    <mergeCell ref="A33:F33"/>
+    <mergeCell ref="A38:F38"/>
+    <mergeCell ref="A43:F43"/>
+    <mergeCell ref="A48:F48"/>
     <mergeCell ref="A1:F1"/>
     <mergeCell ref="A9:F9"/>
     <mergeCell ref="A16:F16"/>
     <mergeCell ref="A23:F23"/>
     <mergeCell ref="A28:F28"/>
-    <mergeCell ref="A33:F33"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE8A2B24-0049-4E24-AA3F-F6D500EED1EB}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="A23" sqref="A23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/HsSurvey_glm_lm_model_fits.xlsx
+++ b/HsSurvey_glm_lm_model_fits.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Camille\Desktop\Fishscapes\hsSurvey\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F95C19B-9939-4880-A04A-1677199223CD}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7D7DC4B-7932-47A4-BC67-10D04022A383}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="449" activeTab="1" xr2:uid="{17A9F256-7631-491B-A39B-0452DB16D56A}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="43">
   <si>
     <t>&lt; 2e-16</t>
   </si>
@@ -156,6 +156,12 @@
   </si>
   <si>
     <t>bassbuildCWHJoin$logAbun:bassbuildCWHJoin$Total.CWH.per.km.shoreline</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lake year CPUE county table for all observations </t>
+  </si>
+  <si>
+    <t xml:space="preserve">note proportions of Vilas and Oneida dominate </t>
   </si>
 </sst>
 </file>
@@ -365,6 +371,55 @@
         <a:xfrm>
           <a:off x="0" y="4191000"/>
           <a:ext cx="5000000" cy="3247619"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>18209</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>28452</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Picture 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F403C418-2368-46A9-98A0-CDFA39158F2D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="7810500"/>
+          <a:ext cx="6723809" cy="980952"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -675,7 +730,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0ED3D0C4-5DCE-41DD-8AD0-6E560E0C7C68}">
   <dimension ref="A1:G51"/>
   <sheetViews>
-    <sheetView topLeftCell="A40" workbookViewId="0">
+    <sheetView topLeftCell="A61" workbookViewId="0">
       <selection activeCell="F57" sqref="F57"/>
     </sheetView>
   </sheetViews>
@@ -1442,14 +1497,101 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE8A2B24-0049-4E24-AA3F-F6D500EED1EB}">
-  <dimension ref="A1"/>
+  <dimension ref="A41:L46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="A23" sqref="A23"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="L41" sqref="L41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetData>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A41" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B41" s="1"/>
+      <c r="C41" s="1"/>
+      <c r="D41" s="1"/>
+      <c r="E41" s="1"/>
+      <c r="F41" s="1"/>
+      <c r="G41" s="1"/>
+      <c r="H41" s="1"/>
+      <c r="I41" s="1"/>
+      <c r="J41" s="1"/>
+      <c r="K41" s="1"/>
+      <c r="L41" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A42" s="2"/>
+      <c r="B42" s="2"/>
+      <c r="C42" s="2"/>
+      <c r="D42" s="2"/>
+      <c r="E42" s="2"/>
+      <c r="F42" s="2"/>
+      <c r="G42" s="2"/>
+      <c r="H42" s="2"/>
+      <c r="I42" s="2"/>
+      <c r="J42" s="2"/>
+      <c r="K42" s="2"/>
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A43" s="2"/>
+      <c r="B43" s="2"/>
+      <c r="C43" s="2"/>
+      <c r="D43" s="2"/>
+      <c r="E43" s="2"/>
+      <c r="F43" s="2"/>
+      <c r="G43" s="2"/>
+      <c r="H43" s="2"/>
+      <c r="I43" s="2"/>
+      <c r="J43" s="2"/>
+      <c r="K43" s="2"/>
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A44" s="2"/>
+      <c r="B44" s="2"/>
+      <c r="C44" s="2"/>
+      <c r="D44" s="2"/>
+      <c r="E44" s="2"/>
+      <c r="F44" s="2"/>
+      <c r="G44" s="2"/>
+      <c r="H44" s="2"/>
+      <c r="I44" s="2"/>
+      <c r="J44" s="2"/>
+      <c r="K44" s="2"/>
+    </row>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A45" s="2"/>
+      <c r="B45" s="2"/>
+      <c r="C45" s="2"/>
+      <c r="D45" s="2"/>
+      <c r="E45" s="2"/>
+      <c r="F45" s="2"/>
+      <c r="G45" s="2"/>
+      <c r="H45" s="2"/>
+      <c r="I45" s="2"/>
+      <c r="J45" s="2"/>
+      <c r="K45" s="2"/>
+    </row>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A46" s="2"/>
+      <c r="B46" s="2"/>
+      <c r="C46" s="2"/>
+      <c r="D46" s="2"/>
+      <c r="E46" s="2"/>
+      <c r="F46" s="2"/>
+      <c r="G46" s="2"/>
+      <c r="H46" s="2"/>
+      <c r="I46" s="2"/>
+      <c r="J46" s="2"/>
+      <c r="K46" s="2"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A41:K41"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
